--- a/biology/Zoologie/Jonaspyge_aesculapus/Jonaspyge_aesculapus.xlsx
+++ b/biology/Zoologie/Jonaspyge_aesculapus/Jonaspyge_aesculapus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonaspyge aesculapus est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonaspyge aesculapus a été nommé par Otto Staudinger en 1876 sous le nom initial de Pyrrhopyge aesculapus[1].
-Nom vernaculaire
-Jonaspyge aesculapus se nomme Fire-edged Skipper en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonaspyge aesculapus a été nommé par Otto Staudinger en 1876 sous le nom initial de Pyrrhopyge aesculapus.
 </t>
         </is>
       </c>
@@ -541,15 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonaspyge aesculapus est un papillon d'une envergure de 46 mm à 51 mm au corps trapu gris. 
-Les ailes sont de couleur gris ou violet à reflets bleu vert métallisé brillant avec une large frange orange aux ailes postérieures.
-Chenille
-La chenille est noire ornée de deux lignes de taches blanc crème.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonaspyge aesculapus se nomme Fire-edged Skipper en anglais.
 </t>
         </is>
       </c>
@@ -575,13 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est Weinmannia wercklei[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonaspyge aesculapus est un papillon d'une envergure de 46 mm à 51 mm au corps trapu gris. 
+Les ailes sont de couleur gris ou violet à reflets bleu vert métallisé brillant avec une large frange orange aux ailes postérieures.
 </t>
         </is>
       </c>
@@ -607,17 +624,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est noire ornée de deux lignes de taches blanc crème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jonaspyge_aesculapus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonaspyge_aesculapus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Weinmannia wercklei.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jonaspyge_aesculapus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonaspyge_aesculapus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonaspyge aesculapus est présent au Costa Rica, à Panama, en Colombie et en Équateur[1].
-Biotope
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonaspyge aesculapus est présent au Costa Rica, à Panama, en Colombie et en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jonaspyge_aesculapus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonaspyge_aesculapus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Jonaspyge aesculapus, sur Wikimedia CommonsJonaspyge aesculapus, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jonaspyge_aesculapus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonaspyge_aesculapus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
